--- a/importDataFormExcelTool/模板文档/order.xlsx
+++ b/importDataFormExcelTool/模板文档/order.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBB_PF\kettle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBB_PF\importDataFormExcelTool\模板文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>电商企业代码</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -157,6 +157,62 @@
   <si>
     <t>成交单位代码不存在</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320106198108301000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>320106198108301001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江苏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秦淮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华路129号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华路130号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三xxxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -224,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +291,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -517,27 +576,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="12.25" customWidth="1"/>
+    <col min="21" max="21" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,24 +656,188 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>3206934162</v>
+      </c>
+      <c r="B2">
+        <v>2302</v>
+      </c>
+      <c r="C2">
+        <v>2302</v>
+      </c>
+      <c r="D2">
+        <v>3206934162</v>
+      </c>
+      <c r="E2">
+        <v>3206934162</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2">
+        <v>2487228</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>142</v>
+      </c>
+      <c r="L2">
+        <v>3206610003</v>
+      </c>
+      <c r="M2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2">
+        <v>13713713711</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>40</v>
+      </c>
+      <c r="U2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V2">
+        <v>15310006</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>50</v>
+      </c>
+      <c r="Y2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3206934162</v>
+      </c>
+      <c r="B3">
+        <v>2302</v>
+      </c>
+      <c r="C3">
+        <v>2302</v>
+      </c>
+      <c r="D3">
+        <v>3206934162</v>
+      </c>
+      <c r="E3">
+        <v>3206934162</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2487229</v>
+      </c>
+      <c r="H3">
+        <v>189</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>142</v>
+      </c>
+      <c r="L3">
+        <v>3206610003</v>
+      </c>
+      <c r="M3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3">
+        <v>13813813811</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>45</v>
+      </c>
+      <c r="R3" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" t="s">
+        <v>42</v>
+      </c>
+      <c r="V3">
+        <v>15310007</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
+        <v>35</v>
+      </c>
+      <c r="Y3">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -615,7 +845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
